--- a/Assignment1_report_jEdit.xlsx
+++ b/Assignment1_report_jEdit.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MADROPBOX\Dropbox\Study\Fall2015\SE6356\Assignment1\jEdit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mahab\Dropbox\AlamMoyeen\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="980" yWindow="460" windowWidth="19200" windowHeight="17640" tabRatio="500"/>
+    <workbookView xWindow="984" yWindow="456" windowWidth="19200" windowHeight="17640" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Change Request 1" sheetId="1" r:id="rId1"/>
@@ -126,9 +126,6 @@
     <t>3. Tested by starting to type a letter that starts one or some of the file name(s).</t>
   </si>
   <si>
-    <t>Implement and option in the jEdit menu which when clicked, allows hiding the scrollbars</t>
-  </si>
-  <si>
     <t>30 mins</t>
   </si>
   <si>
@@ -217,6 +214,9 @@
   </si>
   <si>
     <t>We will modify the update(Jmenu) method in the RecentFilesProvider class</t>
+  </si>
+  <si>
+    <t>Implement an option in the jEdit menu which when clicked, allows hiding the scrollbars</t>
   </si>
 </sst>
 </file>
@@ -583,18 +583,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="66.58203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="66.59765625" style="2" customWidth="1"/>
     <col min="2" max="2" width="97.5" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="2"/>
+    <col min="3" max="16384" width="10.796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -602,16 +602,16 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -619,11 +619,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="4"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
@@ -631,10 +631,10 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
@@ -642,80 +642,80 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="4"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="8"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>5</v>
       </c>
@@ -723,23 +723,23 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="4"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>6</v>
       </c>
@@ -750,33 +750,33 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B28" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B29" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B30" s="4"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B31" s="4"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B33" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>7</v>
       </c>
@@ -784,28 +784,28 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B38" s="4"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B39" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B40" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>8</v>
       </c>
@@ -813,13 +813,13 @@
         <v>29</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B43" s="4"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B44" s="4"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>9</v>
       </c>
@@ -827,28 +827,28 @@
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B47" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B48" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B49" s="4"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B50" s="4"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>16</v>
       </c>
@@ -863,18 +863,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="66.58203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="66.59765625" style="2" customWidth="1"/>
     <col min="2" max="2" width="97.5" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="2"/>
+    <col min="3" max="16384" width="10.796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -882,16 +882,16 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -899,111 +899,111 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="4"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="4"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="4"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="4"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="8"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="5"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="5"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>5</v>
       </c>
@@ -1011,165 +1011,165 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="B27" s="4"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B30" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B31" s="4" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B32" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B33" s="7" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B34" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B35" s="4"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B36" s="4"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B38" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B44" s="4"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B45" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B46" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B48" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B49" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B49" s="4" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B50" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B50" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B51" s="4"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B52" s="4"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B54" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B55" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B55" s="4" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B56" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B56" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B57" s="4"/>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B58" s="4"/>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
         <v>16</v>
       </c>

--- a/Assignment1_report_jEdit.xlsx
+++ b/Assignment1_report_jEdit.xlsx
@@ -14,6 +14,7 @@
   <sheets>
     <sheet name="Change Request 1" sheetId="1" r:id="rId1"/>
     <sheet name="Change Request 2" sheetId="4" r:id="rId2"/>
+    <sheet name="Change Request 3" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="94">
   <si>
     <t>Software system:</t>
   </si>
@@ -198,9 +199,6 @@
     <t>2. Tested Horizontal Scrollbar toggling by using the sub-menu item added under Edit-&gt;Toggle Scrollbars</t>
   </si>
   <si>
-    <t>3. Testd the Other menu items under "Edit" menu to make sure nothing broke adter our changes were committed.</t>
-  </si>
-  <si>
     <t>200 mins</t>
   </si>
   <si>
@@ -210,13 +208,106 @@
     <t>10 mins</t>
   </si>
   <si>
-    <t>325 mins</t>
-  </si>
-  <si>
     <t>We will modify the update(Jmenu) method in the RecentFilesProvider class</t>
   </si>
   <si>
     <t>Implement an option in the jEdit menu which when clicked, allows hiding the scrollbars</t>
+  </si>
+  <si>
+    <t>Add "creation date" column to the List of favorites in jEdit</t>
+  </si>
+  <si>
+    <t>315 mins</t>
+  </si>
+  <si>
+    <t>100 mins</t>
+  </si>
+  <si>
+    <t>60 mins</t>
+  </si>
+  <si>
+    <t>org/gjt/sp/jedit/browser/VFSDirectoryEntryTableModel.java</t>
+  </si>
+  <si>
+    <t>org/gjt/sp/jedit/io/FavoritesVFS.java</t>
+  </si>
+  <si>
+    <t>org/gjt/sp/jedit/io/VFSFile.java</t>
+  </si>
+  <si>
+    <t>210 mins</t>
+  </si>
+  <si>
+    <t>2. Opened Utilities-&gt;Favorites-&gt;Edit Favorites</t>
+  </si>
+  <si>
+    <t>3. We will search for "Edit Favorties" for usage</t>
+  </si>
+  <si>
+    <t>1. Search for "Edit Favorites" for usage</t>
+  </si>
+  <si>
+    <t>2. Usage Found in jedit_gui.props, actions.xml &amp; VFSBrowser.java</t>
+  </si>
+  <si>
+    <t>3. Trying to get clue fom the browseDirectory &amp; setDirectory methods in VFSBrowser class</t>
+  </si>
+  <si>
+    <t>4. Could not figure out how to get the values for path, decided to regroup after searching on stackexchange and reading the jEdit API</t>
+  </si>
+  <si>
+    <t>5. 3rd day, looks like the VFS Class is being initialized and passes extended atributes, we need an EA_CREATED attribute</t>
+  </si>
+  <si>
+    <t>6. We need to use java.nio.file to populate it and it requires path of the file</t>
+  </si>
+  <si>
+    <t>7. searched in FavoritesVFS - found a class and realzied that we will get the path from VFSFile.java and path is in the constructor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We will modify VFSDirectoryEntryTableModel.java, FavoritesVFS.java, VFSFile.java &amp; </t>
+  </si>
+  <si>
+    <t>8. For sorting, did a global seach for EA_MODIFIED. It appears, VFSDirectoryEntryTableModel.java - has a sorting method, we will try to replicate that.</t>
+  </si>
+  <si>
+    <t>1. Added EA_CREATED extended attribute in VFS.java</t>
+  </si>
+  <si>
+    <t>2. Added getCreationTime method in VFSFile class.</t>
+  </si>
+  <si>
+    <t>3. In VFSDirectoryEntryTableModel.java, added a branch for EA_CREATED.</t>
+  </si>
+  <si>
+    <t>4. Added vfs.browser.created=Creation date in jedit_gui.props</t>
+  </si>
+  <si>
+    <t>1. Marked the VFS.java files as impacted, because we will need an extended attribute here.</t>
+  </si>
+  <si>
+    <t>2. The VFSFile.java class is marked as impacted, because we will need a method to get the creation time here.</t>
+  </si>
+  <si>
+    <t>3. The VFSDirectoryEntryTableModel.java class is marked as impacted, since we will need to modify it for sorting using Date Created</t>
+  </si>
+  <si>
+    <t>4. The jedit_gui.props files is marked as impacted, because this is where we will add the menu items.</t>
+  </si>
+  <si>
+    <t>N. The impact set is … VFS.java, VFSFile.java, VFSDirectoryModel.java &amp; jedit_gui.props</t>
+  </si>
+  <si>
+    <t>1. Tested new functionality by opening the edit favorites window and populting with multiples files.</t>
+  </si>
+  <si>
+    <t>2. Columnd Header "Date Created" is visible and sorting works.</t>
+  </si>
+  <si>
+    <t>3. Testd the Other menu items under "Edit Favorites" menu to make sure nothing broke after our changes were committed.</t>
+  </si>
+  <si>
+    <t>3. Testd the Other menu items under "Edit" menu to make sure nothing broke after our changes were committed.</t>
   </si>
 </sst>
 </file>
@@ -773,7 +864,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B33" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -863,8 +954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -908,7 +999,7 @@
         <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -940,21 +1031,21 @@
     </row>
     <row r="13" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
+      <c r="B13" s="4" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="14" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>61</v>
-      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -962,7 +1053,7 @@
         <v>6</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -978,7 +1069,7 @@
         <v>8</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -986,7 +1077,7 @@
         <v>9</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -1155,7 +1246,341 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B56" s="4" t="s">
-        <v>57</v>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B57" s="4"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B58" s="4"/>
+    </row>
+    <row r="60" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A60" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A61" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G61"/>
+  <sheetViews>
+    <sheetView topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="66.59765625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="97.5" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="10.796875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+    </row>
+    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="4"/>
+    </row>
+    <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
+    </row>
+    <row r="8" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="4"/>
+    </row>
+    <row r="12" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="5"/>
+      <c r="B12" s="8"/>
+    </row>
+    <row r="13" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="14" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="5"/>
+    </row>
+    <row r="23" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="5"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
+      <c r="B25" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
+      <c r="B26" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+      <c r="B27" s="4"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B38" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B45" s="4"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B46" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B47" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B50" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B51" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B52" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B55" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B56" s="4" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">

--- a/Assignment1_report_jEdit.xlsx
+++ b/Assignment1_report_jEdit.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="984" yWindow="456" windowWidth="19200" windowHeight="17640" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="984" yWindow="456" windowWidth="19200" windowHeight="17640" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Change Request 1" sheetId="1" r:id="rId1"/>
@@ -214,9 +214,6 @@
     <t>Implement an option in the jEdit menu which when clicked, allows hiding the scrollbars</t>
   </si>
   <si>
-    <t>Add "creation date" column to the List of favorites in jEdit</t>
-  </si>
-  <si>
     <t>315 mins</t>
   </si>
   <si>
@@ -298,16 +295,19 @@
     <t>N. The impact set is … VFS.java, VFSFile.java, VFSDirectoryModel.java &amp; jedit_gui.props</t>
   </si>
   <si>
-    <t>1. Tested new functionality by opening the edit favorites window and populting with multiples files.</t>
-  </si>
-  <si>
-    <t>2. Columnd Header "Date Created" is visible and sorting works.</t>
-  </si>
-  <si>
-    <t>3. Testd the Other menu items under "Edit Favorites" menu to make sure nothing broke after our changes were committed.</t>
-  </si>
-  <si>
     <t>3. Testd the Other menu items under "Edit" menu to make sure nothing broke after our changes were committed.</t>
+  </si>
+  <si>
+    <t>3. Tested the Other menu items under "Edit Favorites" menu to make sure nothing broke after our changes were committed.</t>
+  </si>
+  <si>
+    <t>1. Tested new functionality by opening the edit favorites window and populating with multiples files.</t>
+  </si>
+  <si>
+    <t>2. Column Header "Date Created" is visible and sorting works.</t>
+  </si>
+  <si>
+    <t>Add "creation date" to the list of columns in edit favorites window jEdit and implement sorting by creation date</t>
   </si>
 </sst>
 </file>
@@ -954,7 +954,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
@@ -1032,7 +1032,7 @@
     <row r="13" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -1246,7 +1246,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B56" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -1275,8 +1275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1320,7 +1320,7 @@
         <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -1331,19 +1331,19 @@
         <v>2</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -1362,7 +1362,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -1378,7 +1378,7 @@
         <v>6</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1394,7 +1394,7 @@
         <v>8</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1430,13 +1430,13 @@
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1448,7 +1448,7 @@
         <v>6</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>12</v>
@@ -1456,37 +1456,37 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B30" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B31" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B32" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B33" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B34" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B35" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B36" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -1496,7 +1496,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B38" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -1504,25 +1504,25 @@
         <v>7</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -1539,7 +1539,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B47" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -1547,22 +1547,22 @@
         <v>8</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B50" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B51" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B52" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -1570,17 +1570,17 @@
         <v>9</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B55" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B56" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
